--- a/Week 9/SWP391_Online Shop_Comment.xlsx
+++ b/Week 9/SWP391_Online Shop_Comment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaWeb\swp391-onlineshop-gr1\Week 8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaWeb\swp391-onlineshop-gr1\Week 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -165,6 +165,18 @@
   </si>
   <si>
     <t>13. Search User</t>
+  </si>
+  <si>
+    <t>3.33 Introduction</t>
+  </si>
+  <si>
+    <t>3.34 Recruitment</t>
+  </si>
+  <si>
+    <t>33. Introducion</t>
+  </si>
+  <si>
+    <t>34. Recruitment</t>
   </si>
 </sst>
 </file>
@@ -174,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-m\-yyyy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -311,6 +323,11 @@
       <b/>
       <sz val="14"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -360,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -444,8 +461,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,10 +812,10 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="1"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>
@@ -952,10 +974,10 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="1"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>
@@ -1070,10 +1092,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1165,10 +1187,10 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="1"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>
@@ -1364,26 +1386,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.75">
+    <row r="27" spans="1:3" s="31" customFormat="1" ht="18.75">
       <c r="A27" s="24">
         <v>16</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C27" s="24">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="18.75">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="31" customFormat="1" ht="18.75">
       <c r="A28" s="24">
         <v>17</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C28" s="24">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -1391,10 +1413,10 @@
         <v>18</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" s="24">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -1402,94 +1424,138 @@
         <v>19</v>
       </c>
       <c r="B30" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.75">
+      <c r="A31" s="24">
+        <v>20</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.75">
+      <c r="A32" s="24">
+        <v>21</v>
+      </c>
+      <c r="B32" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C32" s="24">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="45.75" customHeight="1">
-      <c r="A31" s="20" t="s">
+    <row r="33" spans="1:3" ht="45.75" customHeight="1">
+      <c r="A33" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="15"/>
-    </row>
-    <row r="32" spans="1:3" ht="19.5">
-      <c r="A32" s="16">
-        <v>1</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="19.5">
-      <c r="A33" s="16">
-        <v>2</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="27">
-        <v>17</v>
-      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="15"/>
     </row>
     <row r="34" spans="1:3" ht="19.5">
       <c r="A34" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C34" s="27">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="30" customFormat="1" ht="19.5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="19.5">
       <c r="A35" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C35" s="27">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19.5">
       <c r="A36" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="19.5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="30" customFormat="1" ht="19.5">
       <c r="A37" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C37" s="27">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19.5">
       <c r="A38" s="16">
+        <v>5</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="19.5">
+      <c r="A39" s="16">
+        <v>6</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="19.5">
+      <c r="A40" s="16">
         <v>7</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B40" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C40" s="27">
         <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="32" customFormat="1" ht="19.5">
+      <c r="A41" s="16">
+        <v>8</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="27">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="32" customFormat="1" ht="19.5">
+      <c r="A42" s="16">
+        <v>9</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="27">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1497,6 +1563,7 @@
     <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1593,10 +1660,10 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="1"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>
@@ -1754,10 +1821,10 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="1"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>

--- a/Week 9/SWP391_Online Shop_Comment.xlsx
+++ b/Week 9/SWP391_Online Shop_Comment.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Bạch Ngọc Minh Châu" sheetId="4" r:id="rId4"/>
     <sheet name="Nguyễn Gia Phú" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -463,11 +463,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,10 +812,10 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="1"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>
@@ -974,10 +974,10 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="1"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>
@@ -1094,8 +1094,8 @@
   </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1187,10 +1187,10 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="1"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>
@@ -1459,7 +1459,7 @@
       <c r="B33" s="11"/>
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="1:3" ht="19.5">
+    <row r="34" spans="1:3" ht="20.25" customHeight="1">
       <c r="A34" s="16">
         <v>1</v>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="A41" s="16">
         <v>8</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="27">
@@ -1551,7 +1551,7 @@
       <c r="A42" s="16">
         <v>9</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="33" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="27">
@@ -1660,10 +1660,10 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="1"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>
@@ -1821,10 +1821,10 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="1"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>

--- a/Week 9/SWP391_Online Shop_Comment.xlsx
+++ b/Week 9/SWP391_Online Shop_Comment.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Bạch Ngọc Minh Châu" sheetId="4" r:id="rId4"/>
     <sheet name="Nguyễn Gia Phú" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -463,11 +463,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,10 +812,10 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="1"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>
@@ -974,10 +974,10 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="1"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>
@@ -1094,8 +1094,8 @@
   </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1187,10 +1187,10 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="1"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>
@@ -1459,7 +1459,7 @@
       <c r="B33" s="11"/>
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="1:3" ht="20.25" customHeight="1">
+    <row r="34" spans="1:3" ht="19.5">
       <c r="A34" s="16">
         <v>1</v>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="A41" s="16">
         <v>8</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="27">
@@ -1551,7 +1551,7 @@
       <c r="A42" s="16">
         <v>9</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="35" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="27">
@@ -1660,10 +1660,10 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="1"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>
@@ -1821,10 +1821,10 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="1"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>
